--- a/Liquidity_overtime_bycountry_BCE.xlsx
+++ b/Liquidity_overtime_bycountry_BCE.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1531,7 @@
         <v>333855.91720351</v>
       </c>
       <c r="L23">
-        <v>2982634</v>
+        <v>2983708</v>
       </c>
       <c r="M23">
         <v>12077514</v>
@@ -1581,19 +1581,119 @@
         <v>307096.72767301</v>
       </c>
       <c r="L24">
-        <v>3042445</v>
+        <v>3043995</v>
       </c>
       <c r="M24">
-        <v>12032510</v>
+        <v>12029350</v>
       </c>
       <c r="N24">
-        <v>10609967</v>
+        <v>10610807</v>
       </c>
       <c r="O24">
-        <v>3839887</v>
+        <v>3840449</v>
       </c>
       <c r="P24">
-        <v>2897796</v>
+        <v>2897797</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B25">
+        <v>22456.52</v>
+      </c>
+      <c r="C25">
+        <v>96036.94</v>
+      </c>
+      <c r="D25">
+        <v>69514.99000000001</v>
+      </c>
+      <c r="E25">
+        <v>140304.55</v>
+      </c>
+      <c r="F25">
+        <v>8260</v>
+      </c>
+      <c r="G25">
+        <v>240962.980386</v>
+      </c>
+      <c r="H25">
+        <v>852152.82812857</v>
+      </c>
+      <c r="I25">
+        <v>1056837.348395</v>
+      </c>
+      <c r="J25">
+        <v>168358.49229689</v>
+      </c>
+      <c r="K25">
+        <v>213890.19116985</v>
+      </c>
+      <c r="L25">
+        <v>3015224</v>
+      </c>
+      <c r="M25">
+        <v>11877947</v>
+      </c>
+      <c r="N25">
+        <v>10321006</v>
+      </c>
+      <c r="O25">
+        <v>3795760</v>
+      </c>
+      <c r="P25">
+        <v>2768255</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B26">
+        <v>22456.52</v>
+      </c>
+      <c r="C26">
+        <v>96024.94</v>
+      </c>
+      <c r="D26">
+        <v>69347.99000000001</v>
+      </c>
+      <c r="E26">
+        <v>141251.55</v>
+      </c>
+      <c r="F26">
+        <v>8260</v>
+      </c>
+      <c r="G26">
+        <v>233021.305642</v>
+      </c>
+      <c r="H26">
+        <v>794385.85773688</v>
+      </c>
+      <c r="I26">
+        <v>1160478.3461298</v>
+      </c>
+      <c r="J26">
+        <v>197195.08350758</v>
+      </c>
+      <c r="K26">
+        <v>286508.9788078</v>
+      </c>
+      <c r="L26">
+        <v>3020206</v>
+      </c>
+      <c r="M26">
+        <v>12002906</v>
+      </c>
+      <c r="N26">
+        <v>10454393</v>
+      </c>
+      <c r="O26">
+        <v>3788284</v>
+      </c>
+      <c r="P26">
+        <v>2836944</v>
       </c>
     </row>
   </sheetData>
@@ -1840,9 +1940,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5AF7CFB-8012-407C-B8A2-F1E992F6D8FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B66613FA-EA84-4455-A028-29091C2FB301}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BC40748-C688-46AF-BA97-EC792FF4260A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1748B73-8E40-488D-9838-2E7B912C1A41}"/>
 </file>